--- a/Sprint-7/Product Backlog-Burndown.xlsx
+++ b/Sprint-7/Product Backlog-Burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao9\Sprint-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sprint-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,11 @@
     <sheet name="Lista de tarefas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -52,100 +47,382 @@
     <t>Alto</t>
   </si>
   <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PRODUCT BURNDOWN DATA</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>13/09/2016 a 20/09/2016</t>
+  </si>
+  <si>
+    <t>20/09/2016 a 27/09/2016</t>
+  </si>
+  <si>
+    <t>27/09/2016 a 04/10/2016</t>
+  </si>
+  <si>
+    <t>04/10/2016 a 11/10/2016</t>
+  </si>
+  <si>
+    <t>11/10/2016 a 18/10/2016</t>
+  </si>
+  <si>
+    <t>18/10/2016 a 25/10/2016</t>
+  </si>
+  <si>
+    <t>25/10/2016 a 01/11/2016</t>
+  </si>
+  <si>
+    <t>01/11/2016 a 08/11/2016</t>
+  </si>
+  <si>
+    <t>08/11/2016 a 15/11/2016</t>
+  </si>
+  <si>
+    <t>15/11/2016 a 22/11/2016</t>
+  </si>
+  <si>
+    <t>(hrs)</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Horas Por Sprint</t>
+  </si>
+  <si>
+    <t>Sprints Data</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>Para que os discentes, docentes, servidores e técnicos administrativos possam realizar uma adoção de um animal na universidade, deve-se projetar o cadastro dos animais com todas as informações necessárias.</t>
+  </si>
+  <si>
+    <t>o sistema devera efetuar o cadastro de todos os animais que encontram-se ás mediações da universidade.</t>
+  </si>
+  <si>
+    <t>Menu (Acesso ao Cadastro)</t>
+  </si>
+  <si>
+    <t>Armazenar dados dos campos no BD</t>
+  </si>
+  <si>
+    <t>Criar Banco de Dados</t>
+  </si>
+  <si>
+    <t>Definir campos e botões para o cadastro</t>
+  </si>
+  <si>
+    <t>Tratar Eventos dos Campos</t>
+  </si>
+  <si>
+    <t>Tratar Eventos dos Botões do Cadastro</t>
+  </si>
+  <si>
+    <t>Tratar Eventos dos Botões do Menu</t>
+  </si>
+  <si>
+    <t>Criar Classe Animal</t>
+  </si>
+  <si>
+    <t>Como ponto inicial deve-se realizar a análise de requisitos, para identificar as necessidades do cliente e posteriormente definir uma solução.</t>
+  </si>
+  <si>
+    <t>Para que a equipe obtenha um maior conhecimento do software, planejem uma representação da estrutura, modelagem dos objetos e funcionalidades do sistema,  e por fim adicionem todos a um único documento.</t>
+  </si>
+  <si>
+    <t>Analisar as principais funcionalidades do sistema e selecionar os requisitos necessários para o início do desenvolvimento</t>
+  </si>
+  <si>
+    <t>Análise e levantamento de requisitos</t>
+  </si>
+  <si>
+    <t>Abstrair dados do sistema para a elaboração dos diagramas de classe e de caso de uso, como também a inserção dos mesmos no documento de requisitos para uma melhor visualização.</t>
+  </si>
+  <si>
+    <t>Documentação dos  Requisitos</t>
+  </si>
+  <si>
+    <t>Criação do diagrama de caso de uso</t>
+  </si>
+  <si>
+    <t>Criação do diagrama de classe.</t>
+  </si>
+  <si>
+    <t>Um candidado precisa realizar o cadastro com todas suas informações para solicitar a adoção do animal</t>
+  </si>
+  <si>
+    <t>Criação da Classe Candidato</t>
+  </si>
+  <si>
+    <t>Criação Classe Endereço</t>
+  </si>
+  <si>
+    <t>Criação Classe ControllerCandidato</t>
+  </si>
+  <si>
+    <t>Atualização BancoDeDados</t>
+  </si>
+  <si>
+    <t>Tratar Eventos dos Botões do Menu e CadastroCandidato</t>
+  </si>
+  <si>
+    <t>Tratar Eventos dos Campos do CadastroCandidato</t>
+  </si>
+  <si>
+    <t>Criar Formulário de Cadastro</t>
+  </si>
+  <si>
+    <t>Implementar Máscaras nos Campos</t>
+  </si>
+  <si>
+    <t>Armazenar dados do CadastroCandidato no BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudo dos modelos e abordagens de processo de desenvolvimento de software </t>
+  </si>
+  <si>
+    <t>Procurar obter um conhecimento mais amplo ná aréa de desenvolvimento de software</t>
+  </si>
+  <si>
+    <t>Estudo do Modelo de Cascata</t>
+  </si>
+  <si>
+    <t>Estudo Prototipação e Incremental</t>
+  </si>
+  <si>
+    <t>Estudo Modelo RUP</t>
+  </si>
+  <si>
+    <t>Estudo Modelo Espiral e Reuso</t>
+  </si>
+  <si>
+    <t>Estudo Engenharia de Requisitos</t>
+  </si>
+  <si>
+    <t>Ao visualizar todos os animais disponíveis para a adoção, bem como suas informações, o usuário poderá clicar no botão "Adotar" para que possa se iniciar o processo de adoção</t>
+  </si>
+  <si>
+    <t>Criar Classe ListaAnimal</t>
+  </si>
+  <si>
+    <t>Integrar a classe ListaAnimal ao Menu Principal</t>
+  </si>
+  <si>
+    <t>Criar visualização da Lista de Animais</t>
+  </si>
+  <si>
+    <t>O Usuário que deseja adotar um animal, deve preencher um formulário de cadastro no sistema, e posteriormente enviar para um administrador</t>
+  </si>
+  <si>
+    <t>Para que um  usuário adote um animal, é necessário visualizar uma lista dos animais que estão disponíveis para adoção</t>
+  </si>
+  <si>
+    <t>O usuário administrador deverá possuir a opção de visualizar seus dados</t>
+  </si>
+  <si>
+    <t>O usuário tem a opção de fechar o software. Ao fechar o software, se deve ter garantia que nenhum dado seja perdido</t>
+  </si>
+  <si>
+    <t>É necessario ter um controle dos processos de adoção, então se deve criar uma tela de visualização do processo de adoção com o candidato e animal a ser adotado</t>
+  </si>
+  <si>
+    <t>Uma tela de apresentação será mostrada com todos os dados do administrador</t>
+  </si>
+  <si>
     <t>Médio</t>
   </si>
   <si>
-    <t>Baixo</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>PRODUCT BURNDOWN DATA</t>
-  </si>
-  <si>
-    <t>Dias</t>
-  </si>
-  <si>
-    <t>Planejado</t>
-  </si>
-  <si>
-    <t>13/09/2016 a 20/09/2016</t>
-  </si>
-  <si>
-    <t>20/09/2016 a 27/09/2016</t>
-  </si>
-  <si>
-    <t>27/09/2016 a 04/10/2016</t>
-  </si>
-  <si>
-    <t>04/10/2016 a 11/10/2016</t>
-  </si>
-  <si>
-    <t>11/10/2016 a 18/10/2016</t>
-  </si>
-  <si>
-    <t>18/10/2016 a 25/10/2016</t>
-  </si>
-  <si>
-    <t>25/10/2016 a 01/11/2016</t>
-  </si>
-  <si>
-    <t>01/11/2016 a 08/11/2016</t>
-  </si>
-  <si>
-    <t>08/11/2016 a 15/11/2016</t>
-  </si>
-  <si>
-    <t>15/11/2016 a 22/11/2016</t>
-  </si>
-  <si>
-    <t>(hrs)</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
-  </si>
-  <si>
-    <t>Sprint 6</t>
-  </si>
-  <si>
-    <t>Sprint 7</t>
-  </si>
-  <si>
-    <t>Sprint 8</t>
-  </si>
-  <si>
-    <t>Sprint 9</t>
-  </si>
-  <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
-    <t>Ideal</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Horas Por Sprint</t>
-  </si>
-  <si>
-    <t>Sprints Data</t>
-  </si>
-  <si>
-    <t>MÉDIA</t>
+    <t>Se precisa de alguma forma de armazenamento persistente de dados</t>
+  </si>
+  <si>
+    <t>Os dados serão armazenados em algum banco de dados ou arquivo (JSON, CSV)</t>
+  </si>
+  <si>
+    <t>Ao clicar em fechar, será apresentado uma caixa de confirmação da ação, perguntando se deseja realmente sair.</t>
+  </si>
+  <si>
+    <t>Nessa tela de visualização, deverá ser exibido o animal a ser adotado e os dados do candidato, bem como sua motivação para adoção.</t>
+  </si>
+  <si>
+    <t>Criar classe TelaAdministrador</t>
+  </si>
+  <si>
+    <t>Integrar tela ao menu</t>
+  </si>
+  <si>
+    <t>Criar Controller para tela</t>
+  </si>
+  <si>
+    <t>Criar salvamento dos dados ao sair</t>
+  </si>
+  <si>
+    <t>Criar caixa de confirmação</t>
+  </si>
+  <si>
+    <t>Fazer mecanismos de segurança. Garantia de salvar os dados</t>
+  </si>
+  <si>
+    <t>Deverá ser possível cadastrar outro administrador. Sempre haverá no mínimo um administrador padrão</t>
+  </si>
+  <si>
+    <t>Todos os campos deverão ser preenchidos corretamente com as informações do administrador</t>
+  </si>
+  <si>
+    <t>Criar Model Administrador</t>
+  </si>
+  <si>
+    <t>Criar Controller cadastro Adm</t>
+  </si>
+  <si>
+    <t>Criar Tela Cadastro Adm</t>
+  </si>
+  <si>
+    <t>Para gerenciar o sistema, o administrador deverá fazer o login com seus dados</t>
+  </si>
+  <si>
+    <t>A tela de login será apresentada ao entrar no software. O login é uma necessidade apenas para administradores.</t>
+  </si>
+  <si>
+    <t>Criar classe sessao</t>
+  </si>
+  <si>
+    <t>Melhorar as telas de cadastro, visualização e edição de dados</t>
+  </si>
+  <si>
+    <t>O sistema deverá abrir apenas uma Janela Principal, e os cadastros e visualizações serão definidas como JInternalFrame para que todo o espaço seja aproveitado.</t>
+  </si>
+  <si>
+    <t>Estudar e Implementar a Biblioteca JInternalFrame</t>
+  </si>
+  <si>
+    <t>Atualizar Telas para JInternalFrame</t>
+  </si>
+  <si>
+    <t>Desejo que o Sistema forneça uma opção para alteração dos dados de animais cadastrados</t>
+  </si>
+  <si>
+    <t>O Sistema vai possuir uma opção de alteração na TelaPrincipal, com acesso a alteração dos dados dos animais</t>
+  </si>
+  <si>
+    <t>Tratar o Evento de Alteração de Dados</t>
+  </si>
+  <si>
+    <t>Busca e Visualização de Dados</t>
+  </si>
+  <si>
+    <t>Salvar Alterações no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Desejo que todos os candidatos que foram cadastrados possam ser visualizados em uma Lista</t>
+  </si>
+  <si>
+    <t>Atualizar Eventos de Chamada das telas</t>
+  </si>
+  <si>
+    <t>Desejo que todos os candidatos cadastrados no sistema, sejam visualizados em um lista.</t>
+  </si>
+  <si>
+    <t>Criar Classe ListaCandidatos</t>
+  </si>
+  <si>
+    <t>Integrar Classe ListaCandidatos ao Menu Principal</t>
+  </si>
+  <si>
+    <t>Criar visualização da Lista de Candidatos</t>
+  </si>
+  <si>
+    <t>É preciso fazer uma melhoria no código, com o objetivo de o tornar mais rápido, legível e seguro</t>
+  </si>
+  <si>
+    <t>Todas as classes devem ser analisadas e alteradas, caso haja necessidade</t>
+  </si>
+  <si>
+    <t>Refatorar as classes de view</t>
+  </si>
+  <si>
+    <t>Refatorar as classes de model</t>
+  </si>
+  <si>
+    <t>Refatorar as classes de controller</t>
+  </si>
+  <si>
+    <t>Refatorações de segurança</t>
+  </si>
+  <si>
+    <t>O Candidato pode acessar seu cadastro e se for necessário alterar dados incorretos.</t>
+  </si>
+  <si>
+    <t>O Sistema vai fornecer a opção de alteração de dados do candidato no menu principal, para correção de dados.</t>
+  </si>
+  <si>
+    <t>Tratar o Evento de Alteração de Dados do candidato</t>
+  </si>
+  <si>
+    <t>Busca e Visualização de Dados do Candidato</t>
+  </si>
+  <si>
+    <t>Implementar  funcionalidades de segurança do sistema e definição de regras de negócio.</t>
+  </si>
+  <si>
+    <t>Será implementado no sistema acesso através de login e senha , definindo permissões de acordo com o tipo de usúario que está acessando.</t>
+  </si>
+  <si>
+    <t>Criar ControllerTelaInicial</t>
+  </si>
+  <si>
+    <t>Tratar Eventos da TelaInicial</t>
+  </si>
+  <si>
+    <t>Design de Imagens Para TelaInicial</t>
+  </si>
+  <si>
+    <t>Criar Tela Inicial e Sistema de Login</t>
   </si>
 </sst>
 </file>
@@ -155,13 +432,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -235,8 +519,21 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +554,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBEEF4"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1C4587"/>
         <bgColor rgb="FF0B5394"/>
       </patternFill>
@@ -279,8 +570,32 @@
         <bgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -371,139 +686,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1155CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -732,7 +1072,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 0</c15:sqref>
@@ -801,7 +1141,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A32-47E1-AD4E-90814643B547}"/>
+              <c16:uniqueId val="{00000000-6672-459F-9697-9E0FFD9903C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -894,7 +1234,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 1</c15:sqref>
@@ -963,7 +1303,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A32-47E1-AD4E-90814643B547}"/>
+              <c16:uniqueId val="{00000001-6672-459F-9697-9E0FFD9903C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -984,11 +1324,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="7821907"/>
-        <c:axId val="7044278"/>
+        <c:axId val="-2012087040"/>
+        <c:axId val="-2012085952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7821907"/>
+        <c:axId val="-2012087040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1363,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7044278"/>
+        <c:crossAx val="-2012085952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1371,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7044278"/>
+        <c:axId val="-2012085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1077,7 +1417,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7821907"/>
+        <c:crossAx val="-2012087040"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1203,9 +1543,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1255,9 +1595,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1454,17 +1794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.42578125"/>
     <col min="2" max="2" width="53.140625"/>
-    <col min="3" max="3" width="49.28515625"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875"/>
     <col min="5" max="5" width="14.140625"/>
     <col min="6" max="6" width="8.85546875"/>
@@ -1472,634 +1812,1735 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="21">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="21">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="21">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21">
+        <v>9</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21">
+        <v>15</v>
+      </c>
+      <c r="E7" s="21">
+        <v>11</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F34" s="6">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F35" s="6">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="F39" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2.87</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="F45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3.48</v>
+      </c>
+      <c r="F53" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="F55" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="F56" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F57" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="F58" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F69" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F70" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2</v>
+      </c>
+      <c r="E71" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F71" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F72" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="1048545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="29">
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2111,7 +3552,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2132,377 +3573,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>70</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>70</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="K4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="27" t="s">
+    </row>
+    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="B5" s="14">
         <v>500</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:L5" si="0">B5-$A9</f>
         <v>450</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14">
         <f>B5</f>
         <v>500</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:L6" si="1">B6-C9</f>
-        <v>500</v>
-      </c>
-      <c r="D6" s="30">
+        <v>465</v>
+      </c>
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="E6" s="30">
+        <v>440.6</v>
+      </c>
+      <c r="E6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="F6" s="30">
+        <v>417.97670000000005</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G6" s="30">
+        <v>396.03670000000005</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H6" s="30">
+        <v>380.16670000000005</v>
+      </c>
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="I6" s="30">
+        <v>373.49670000000003</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="J6" s="30">
+        <v>373.49670000000003</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="K6" s="30">
+        <v>373.49670000000003</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L6" s="30">
+        <v>373.49670000000003</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+        <v>373.49670000000003</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="46">
         <v>50</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="30">
+      <c r="B9" s="46"/>
+      <c r="C9" s="15">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15">
         <f>SUMIF('Product Backlog'!F:F,2,'Product Backlog'!E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
+        <v>24.4</v>
+      </c>
+      <c r="E9" s="15">
         <f>SUMIF('Product Backlog'!F:F,3,'Product Backlog'!E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
+        <v>22.6233</v>
+      </c>
+      <c r="F9" s="15">
         <f>SUMIF('Product Backlog'!F:F,4,'Product Backlog'!E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
+        <v>21.940000000000005</v>
+      </c>
+      <c r="G9" s="15">
         <f>SUMIF('Product Backlog'!F:F,5,'Product Backlog'!E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
+        <v>15.870000000000001</v>
+      </c>
+      <c r="H9" s="15">
         <f>SUMIF('Product Backlog'!F:F,6,'Product Backlog'!E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
+        <v>6.67</v>
+      </c>
+      <c r="I9" s="15">
         <f>SUMIF('Product Backlog'!F:F,7,'Product Backlog'!E:E)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="15">
         <f>SUMIF('Product Backlog'!F:F,8,'Product Backlog'!E:E)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="15">
         <f>SUMIF('Product Backlog'!F:F,9,'Product Backlog'!E:E)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="15">
         <f>SUMIF('Product Backlog'!F:F,10,'Product Backlog'!E:E)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="15">
         <f>SUM(C9:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="30">
+        <v>126.50330000000001</v>
+      </c>
+      <c r="N9" s="15">
         <f>M9/10</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+        <v>12.65033</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2525,17 +3966,17 @@
     <mergeCell ref="L2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:N91">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:N91">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2561,7 +4002,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
+      <c r="A1" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Sprint-7/Product Backlog-Burndown.xlsx
+++ b/Sprint-7/Product Backlog-Burndown.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sprint-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sprint-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -423,6 +423,63 @@
   </si>
   <si>
     <t>Criar Tela Inicial e Sistema de Login</t>
+  </si>
+  <si>
+    <t>Criar View do processo de adoção</t>
+  </si>
+  <si>
+    <t>Criar view externa dos animais</t>
+  </si>
+  <si>
+    <t>Criar Controller do Processo de adoção</t>
+  </si>
+  <si>
+    <t>Criar model Adoção</t>
+  </si>
+  <si>
+    <t>Se precisa manter atualizado todos os documentos do software</t>
+  </si>
+  <si>
+    <t>Atualizar levantamento de requisitos, diagrama de classe, casos de uso</t>
+  </si>
+  <si>
+    <t>Criar controller Formulário de Adoção</t>
+  </si>
+  <si>
+    <t>Criar view de detalhes da adoção</t>
+  </si>
+  <si>
+    <t>Revisão de Telas e Correções de Bugs</t>
+  </si>
+  <si>
+    <t>Corrigir falhas que venha a causar problemas no sistema</t>
+  </si>
+  <si>
+    <t>Retirar Componentes não Funcionais</t>
+  </si>
+  <si>
+    <t>Modificação Formulário de Cadastro de Candidato e Animal</t>
+  </si>
+  <si>
+    <t>Modificação Visualização de Adoções</t>
+  </si>
+  <si>
+    <t>Adicionar opção que possibilite a Inserção da Imgem do Animal que será adotado futuramente</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir a Inserção de fotos para uma melhor visualização dos animais</t>
+  </si>
+  <si>
+    <t>Modificação Listagem de Animais com  ListCellRenderer</t>
+  </si>
+  <si>
+    <t>Implementação de JFileChooser para Procura de Arquivo</t>
+  </si>
+  <si>
+    <t>Criar Método para Renomear o Arquivo</t>
+  </si>
+  <si>
+    <t>Criar Método para Copiar  Arquivo para o Sistema</t>
   </si>
 </sst>
 </file>
@@ -814,6 +871,15 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,17 +892,8 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1794,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3242,167 +3299,237 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="F60" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F61" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="F62" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="25"/>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F63" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="F65" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="F66" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F68" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D69" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="5">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="F69" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
       </c>
       <c r="E70" s="5">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="F70" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="6" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D71" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F71" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2</v>
-      </c>
-      <c r="E72" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="F72" s="6">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
@@ -3436,15 +3563,13 @@
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="25"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
@@ -3454,63 +3579,239 @@
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
+      <c r="A80" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F80" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F81" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F82" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F83" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
+  <mergeCells count="35">
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="A46:A48"/>
@@ -3519,12 +3820,17 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A59:A64"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:F1"/>
@@ -3538,6 +3844,7 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3552,7 +3859,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3573,20 +3880,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="1"/>
@@ -3601,40 +3908,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1"/>
@@ -3649,18 +3956,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3794,19 +4101,19 @@
       </c>
       <c r="I6" s="15">
         <f t="shared" si="1"/>
-        <v>373.49670000000003</v>
+        <v>347.65670000000006</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>373.49670000000003</v>
+        <v>347.65670000000006</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>373.49670000000003</v>
+        <v>347.65670000000006</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>373.49670000000003</v>
+        <v>347.65670000000006</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -3848,22 +4155,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3882,10 +4189,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="A9" s="41">
         <v>50</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="15">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>35</v>
@@ -3912,7 +4219,7 @@
       </c>
       <c r="I9" s="15">
         <f>SUMIF('Product Backlog'!F:F,7,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>25.84</v>
       </c>
       <c r="J9" s="15">
         <f>SUMIF('Product Backlog'!F:F,8,'Product Backlog'!E:E)</f>
@@ -3928,11 +4235,11 @@
       </c>
       <c r="M9" s="15">
         <f>SUM(C9:L9)</f>
-        <v>126.50330000000001</v>
+        <v>152.3433</v>
       </c>
       <c r="N9" s="15">
         <f>M9/10</f>
-        <v>12.65033</v>
+        <v>15.23433</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3947,6 +4254,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A9:B9"/>
@@ -3962,8 +4271,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">
